--- a/data/case1/13/V2_1.xlsx
+++ b/data/case1/13/V2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999206323931</v>
+        <v>0.99999999138966</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99532042761228268</v>
+        <v>0.99461792622087897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97752856204458971</v>
+        <v>0.97308323888104287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.97025165501942123</v>
+        <v>0.9630690174249974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.96346512133313322</v>
+        <v>0.95345794703980391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94045022565226022</v>
+        <v>0.93183366137794166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93995857633490365</v>
+        <v>0.92804480965330405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93842069369604819</v>
+        <v>0.92359053460479523</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94052552570929127</v>
+        <v>0.91966820336726185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94360224007221061</v>
+        <v>0.91667788066554401</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94407971992888651</v>
+        <v>0.9163490354348599</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94587909849634499</v>
+        <v>0.91597931064069082</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.95505827532356258</v>
+        <v>0.91591687795053367</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.95952030284724055</v>
+        <v>0.91664345554294036</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95692933865419505</v>
+        <v>0.91405209972053525</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.95442320398155189</v>
+        <v>0.91154569030009913</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.95071563620450195</v>
+        <v>0.90783786577374725</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.94960674764561803</v>
+        <v>0.90672897042652278</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99319638740628668</v>
+        <v>0.99288333742582802</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97626230977994188</v>
+        <v>0.98576641247042729</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.97242601504164217</v>
+        <v>0.98436794913589165</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.96718200741426097</v>
+        <v>0.98310344817936968</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97049330557582603</v>
+        <v>0.96604767738514175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9574719540689226</v>
+        <v>0.95302601239174578</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95101488483349295</v>
+        <v>0.94656889285287016</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.936794630883381</v>
+        <v>0.92915917352868349</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93194789980872339</v>
+        <v>0.92567914406889673</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.91047446877853588</v>
+        <v>0.91299935598866566</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.89520295869199473</v>
+        <v>0.90372103206933563</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.88863255904745597</v>
+        <v>0.89927351066613603</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.88097883924970899</v>
+        <v>0.89162012403765312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.87929953994508492</v>
+        <v>0.88994084627163517</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8787795393376695</v>
+        <v>0.88942084791301745</v>
       </c>
     </row>
   </sheetData>
